--- a/data/CS3/case18_1/case18_1_2045.xlsx
+++ b/data/CS3/case18_1/case18_1_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B257373-4452-4910-A0DA-95DD3D14850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CC623-1493-427F-BBCF-9C023D082B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/case18_1/case18_1_2045.xlsx
+++ b/data/CS3/case18_1/case18_1_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CC623-1493-427F-BBCF-9C023D082B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFED951-45C4-4013-8B7E-4364A566EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,11 +9242,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS3/case18_1/case18_1_2045.xlsx
+++ b/data/CS3/case18_1/case18_1_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFED951-45C4-4013-8B7E-4364A566EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23D11F9-B186-483E-83DF-DC339A6B8DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -9229,7 +9229,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9242,13 +9242,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f t="shared" ref="C1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
